--- a/玩客狐/狐狸.xlsx
+++ b/玩客狐/狐狸.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$121</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +36,14 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A64"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,698 +390,2651 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19614</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2" t="b">
+        <f>D2&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <f>D2&gt;30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16813</v>
+      </c>
+      <c r="D3">
+        <v>223</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E66" si="0">D3&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F66" si="1">D3&gt;30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>8951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13527</v>
+      </c>
+      <c r="D4">
+        <v>307</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20184</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>11609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11491</v>
+      </c>
+      <c r="D6">
+        <v>396</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>7060</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+      <c r="D7">
+        <v>280</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+      <c r="D8">
+        <v>205</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>14151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13568</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>12297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4161</v>
+      </c>
+      <c r="D10">
+        <v>62</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>4948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4014</v>
+      </c>
+      <c r="D11">
+        <v>124</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>11611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13517</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>8612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17101</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>4583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17106</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>4584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17107</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>14164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4058</v>
+      </c>
+      <c r="D16">
+        <v>178</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>6668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17116</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>5901</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17123</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3313</v>
+      </c>
+      <c r="D19">
+        <v>207</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3314</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>6463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8535</v>
+      </c>
+      <c r="D21">
+        <v>152</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10375</v>
+      </c>
+      <c r="D22">
+        <v>119</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>14177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10125</v>
+      </c>
+      <c r="D23">
+        <v>275</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>5987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8372</v>
+      </c>
+      <c r="D24">
+        <v>89</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8951</v>
+      </c>
+      <c r="D25">
+        <v>66</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>5508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4879</v>
+      </c>
+      <c r="D26">
+        <v>149</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>11652</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6682</v>
+      </c>
+      <c r="D27">
+        <v>112</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>7046</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1359</v>
+      </c>
+      <c r="D28">
+        <v>203</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>6306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1905</v>
+      </c>
+      <c r="D29">
+        <v>187</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>5333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1656</v>
+      </c>
+      <c r="D30">
+        <v>135</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>5339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6630</v>
+      </c>
+      <c r="D31">
+        <v>110</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>6364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1513</v>
+      </c>
+      <c r="D32">
+        <v>107</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1774</v>
+      </c>
+      <c r="D33">
+        <v>136</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>5160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+      <c r="D34">
+        <v>189</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>6686</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12820</v>
+      </c>
+      <c r="D35">
+        <v>81</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11609</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7060</v>
+      </c>
+      <c r="D37">
+        <v>53</v>
+      </c>
+      <c r="E37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>4493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4802</v>
+      </c>
+      <c r="D38">
+        <v>39</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>6009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14151</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C40">
-        <v>11610</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4613</v>
+      </c>
+      <c r="D40">
+        <v>173</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>14490</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12297</v>
+      </c>
+      <c r="D41">
+        <v>69</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>11994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5167</v>
+      </c>
+      <c r="D42">
+        <v>110</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>11326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22075</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>5161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22077</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>11082</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4948</v>
+      </c>
+      <c r="D45">
+        <v>29</v>
+      </c>
+      <c r="E45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>11141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11611</v>
+      </c>
+      <c r="D46">
+        <v>69</v>
+      </c>
+      <c r="E46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>11641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8612</v>
+      </c>
+      <c r="D47">
+        <v>57</v>
+      </c>
+      <c r="E47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>10879</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12202</v>
+      </c>
+      <c r="D48">
+        <v>106</v>
+      </c>
+      <c r="E48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>11904</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6118</v>
+      </c>
+      <c r="D49">
+        <v>114</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>12440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4583</v>
+      </c>
+      <c r="D50">
+        <v>75</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>12442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4584</v>
+      </c>
+      <c r="D51">
+        <v>109</v>
+      </c>
+      <c r="E51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>11603</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20759</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>6866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14164</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>12616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20642</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>13372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21669</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C56">
-        <v>13645</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21674</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>13647</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5644</v>
+      </c>
+      <c r="D57">
+        <v>44</v>
+      </c>
+      <c r="E57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F57" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>13403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6668</v>
+      </c>
+      <c r="D58">
+        <v>146</v>
+      </c>
+      <c r="E58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>14488</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5901</v>
+      </c>
+      <c r="D59">
+        <v>53</v>
+      </c>
+      <c r="E59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C60">
-        <v>13746</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6175</v>
+      </c>
+      <c r="D60">
+        <v>145</v>
+      </c>
+      <c r="E60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>11728</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1833</v>
+      </c>
+      <c r="D61">
+        <v>47</v>
+      </c>
+      <c r="E61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C62">
-        <v>13659</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6463</v>
+      </c>
+      <c r="D62">
+        <v>76</v>
+      </c>
+      <c r="E62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C63">
-        <v>14252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1358</v>
+      </c>
+      <c r="D63">
+        <v>162</v>
+      </c>
+      <c r="E63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>1362</v>
+      </c>
+      <c r="D64">
+        <v>73</v>
+      </c>
+      <c r="E64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F64" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>14177</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>5987</v>
+      </c>
+      <c r="D66">
+        <v>99</v>
+      </c>
+      <c r="E66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>1384</v>
+      </c>
+      <c r="D67">
+        <v>55</v>
+      </c>
+      <c r="E67" t="b">
+        <f t="shared" ref="E67:E121" si="2">D67&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="F67" t="b">
+        <f t="shared" ref="F67:F121" si="3">D67&gt;30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>5508</v>
+      </c>
+      <c r="D68">
+        <v>130</v>
+      </c>
+      <c r="E68" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F68" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>11652</v>
+      </c>
+      <c r="D69">
+        <v>38</v>
+      </c>
+      <c r="E69" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>5023</v>
+      </c>
+      <c r="D70">
+        <v>53</v>
+      </c>
+      <c r="E70" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>6306</v>
+      </c>
+      <c r="D71">
+        <v>62</v>
+      </c>
+      <c r="E71" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>5797</v>
+      </c>
+      <c r="D72">
+        <v>153</v>
+      </c>
+      <c r="E72" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F72" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>6076</v>
+      </c>
+      <c r="D73">
+        <v>133</v>
+      </c>
+      <c r="E73" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F73" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>5333</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F74" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>5339</v>
+      </c>
+      <c r="D75">
+        <v>78</v>
+      </c>
+      <c r="E75" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F75" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>6364</v>
+      </c>
+      <c r="D76">
+        <v>50</v>
+      </c>
+      <c r="E76" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F76" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>6385</v>
+      </c>
+      <c r="D77">
+        <v>95</v>
+      </c>
+      <c r="E77" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>1528</v>
+      </c>
+      <c r="D78">
+        <v>70</v>
+      </c>
+      <c r="E78" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>5160</v>
+      </c>
+      <c r="D79">
+        <v>28</v>
+      </c>
+      <c r="E79" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>5250</v>
+      </c>
+      <c r="D80">
+        <v>51</v>
+      </c>
+      <c r="E80" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F80" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>20166</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>6686</v>
+      </c>
+      <c r="D82">
+        <v>35</v>
+      </c>
+      <c r="E82" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>1294</v>
+      </c>
+      <c r="D83">
+        <v>180</v>
+      </c>
+      <c r="E83" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>24</v>
+      </c>
+      <c r="C84">
+        <v>4425</v>
+      </c>
+      <c r="D84">
+        <v>4425</v>
+      </c>
+      <c r="E84" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F84" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>4493</v>
+      </c>
+      <c r="D85">
+        <v>41</v>
+      </c>
+      <c r="E85" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F85" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>4557</v>
+      </c>
+      <c r="D86">
+        <v>156</v>
+      </c>
+      <c r="E86" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F86" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>4574</v>
+      </c>
+      <c r="D87">
+        <v>73</v>
+      </c>
+      <c r="E87" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F87" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>24</v>
+      </c>
+      <c r="C88">
+        <v>6009</v>
+      </c>
+      <c r="D88">
+        <v>60</v>
+      </c>
+      <c r="E88" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>27</v>
+      </c>
+      <c r="C89">
+        <v>11610</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <v>14490</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>11994</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <v>11326</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>5161</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+      <c r="E93" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F93" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>11082</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>11141</v>
+      </c>
+      <c r="D95">
+        <v>35</v>
+      </c>
+      <c r="E95" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F95" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="C96">
+        <v>11641</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="C97">
+        <v>10879</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>32</v>
+      </c>
+      <c r="C98">
+        <v>11904</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>32</v>
+      </c>
+      <c r="C99">
+        <v>12440</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <v>12442</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>11603</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>6866</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>36</v>
+      </c>
+      <c r="C103">
+        <v>12316</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>36</v>
+      </c>
+      <c r="C104">
+        <v>13372</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>36</v>
+      </c>
+      <c r="C105">
+        <v>13645</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>36</v>
+      </c>
+      <c r="C106">
+        <v>13647</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>36</v>
+      </c>
+      <c r="C107">
+        <v>13403</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>36</v>
+      </c>
+      <c r="C108">
+        <v>14488</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>36</v>
+      </c>
+      <c r="C109">
+        <v>13746</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>36</v>
+      </c>
+      <c r="C110">
+        <v>16882</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>38</v>
+      </c>
+      <c r="C111">
+        <v>11728</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>42</v>
+      </c>
+      <c r="C112">
+        <v>13659</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F112" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>42</v>
+      </c>
+      <c r="C113">
+        <v>14252</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
         <v>46</v>
       </c>
-      <c r="C64">
+      <c r="C114">
         <v>13622</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F114" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>48</v>
+      </c>
+      <c r="C115">
+        <v>17076</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>48</v>
+      </c>
+      <c r="C116">
+        <v>17606</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>48</v>
+      </c>
+      <c r="C117">
+        <v>21492</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>49</v>
+      </c>
+      <c r="C118">
+        <v>21421</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>52</v>
+      </c>
+      <c r="C119">
+        <v>16916</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>53</v>
+      </c>
+      <c r="C120">
+        <v>19970</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>62</v>
+      </c>
+      <c r="C121">
+        <v>19969</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F121" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
